--- a/data/Fall2018/db1-7_all-timepoints-runs/db7/15-genes_34-edges_db7_Sigmoid_estimation_all-timepoints.xlsx
+++ b/data/Fall2018/db1-7_all-timepoints-runs/db7/15-genes_34-edges_db7_Sigmoid_estimation_all-timepoints.xlsx
@@ -381,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,12 +434,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -611,17 +605,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="132" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="132" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1244,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1254,7 +1249,7 @@
     <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1265,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1289,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1310,7 +1305,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1334,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1342,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1350,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1358,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1371,8 +1366,14 @@
       <c r="D14" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1434,6 +1435,42 @@
       </c>
       <c r="N16" s="1">
         <v>60</v>
+      </c>
+      <c r="O16" s="1">
+        <v>65</v>
+      </c>
+      <c r="P16" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>75</v>
+      </c>
+      <c r="R16" s="1">
+        <v>80</v>
+      </c>
+      <c r="S16" s="1">
+        <v>85</v>
+      </c>
+      <c r="T16" s="1">
+        <v>90</v>
+      </c>
+      <c r="U16" s="1">
+        <v>95</v>
+      </c>
+      <c r="V16" s="1">
+        <v>100</v>
+      </c>
+      <c r="W16" s="1">
+        <v>105</v>
+      </c>
+      <c r="X16" s="1">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>115</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X15" activeCellId="2" sqref="G2 P2 X15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1866,7 +1905,7 @@
       <c r="F2" s="3">
         <v>0.5827</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="3">
         <v>-0.3947</v>
       </c>
@@ -1891,7 +1930,7 @@
       <c r="O2" s="3">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="10"/>
       <c r="Q2" s="3">
         <v>0.26819999999999999</v>
       </c>
@@ -2875,7 +2914,7 @@
       <c r="W15" s="3">
         <v>0.65090000000000003</v>
       </c>
-      <c r="X15" s="3"/>
+      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -2966,7 +3005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T8" activeCellId="7" sqref="B9 C3 C10 C13 I2 J3 S3 T8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3065,7 +3106,7 @@
       <c r="H2" s="3">
         <v>-0.42530000000000001</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="3">
         <v>0.56820000000000004</v>
       </c>
@@ -3110,7 +3151,7 @@
       <c r="B3" s="3">
         <v>-0.66849999999999998</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="3">
         <v>-0.43219999999999997</v>
       </c>
@@ -3129,7 +3170,7 @@
       <c r="I3" s="3">
         <v>0.59750000000000003</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="3">
         <v>-0.3216</v>
       </c>
@@ -3154,7 +3195,7 @@
       <c r="R3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="3">
         <v>2.1099000000000001</v>
       </c>
@@ -3480,7 +3521,7 @@
       <c r="S8" s="3">
         <v>0.4713</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="3">
         <v>1.2195</v>
       </c>
@@ -3489,7 +3530,7 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>77</v>
       </c>
@@ -3555,7 +3596,7 @@
       <c r="B10" s="3">
         <v>0.5524</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="3">
         <v>1.3068</v>
       </c>
@@ -3748,7 +3789,7 @@
       <c r="B13" s="3">
         <v>-0.4763</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3">
         <v>-0.33360000000000001</v>
       </c>
@@ -4482,14 +4523,14 @@
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3">
         <v>6.0278999999999998</v>
       </c>
       <c r="D8" s="3">
         <v>-0.84640000000000004</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="3">
         <v>0.94030000000000002</v>
       </c>
@@ -4499,29 +4540,29 @@
       <c r="H8" s="3">
         <v>1.6552</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="3">
         <v>2.3471000000000002</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="3">
         <v>-1.4205000000000001</v>
       </c>
       <c r="N8" s="3">
         <v>-0.37619999999999998</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="3">
         <v>-0.82179999999999997</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4563,7 +4604,7 @@
       <c r="M9" s="3">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="3">
         <v>0.4501</v>
       </c>
@@ -4727,7 +4768,7 @@
       <c r="D12" s="3">
         <v>0.22919999999999999</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="3">
         <v>1.1875</v>
       </c>
@@ -4870,7 +4911,7 @@
       <c r="I14" s="3">
         <v>-0.4289</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="3">
         <v>-0.99909999999999999</v>
       </c>
@@ -4974,7 +5015,7 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3">
         <v>0.56440000000000001</v>
       </c>
@@ -5051,7 +5092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" activeCellId="7" sqref="B14 E12 I12 I13 J12 N12 O12 P12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5722,7 +5765,7 @@
       <c r="D12" s="3">
         <v>0.32219999999999999</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="3">
         <v>0.40579999999999999</v>
       </c>
@@ -5732,8 +5775,8 @@
       <c r="H12" s="3">
         <v>0.4143</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="3">
         <v>-0.1119</v>
       </c>
@@ -5743,9 +5786,9 @@
       <c r="M12" s="3">
         <v>0.16170000000000001</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="3">
         <v>-0.22140000000000001</v>
       </c>
@@ -5781,7 +5824,7 @@
       <c r="H13" s="3">
         <v>-0.1171</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="3">
         <v>0.3775</v>
       </c>
@@ -5817,7 +5860,7 @@
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3">
         <v>0.14910000000000001</v>
       </c>
@@ -6737,8 +6780,8 @@
       <c r="C12" s="3">
         <v>0.55740000000000001</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="3">
         <v>0.29699999999999999</v>
       </c>
@@ -6748,29 +6791,29 @@
       <c r="H12" s="3">
         <v>0.15820000000000001</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="3">
         <v>1.7097</v>
       </c>
       <c r="K12" s="3">
         <v>0.61980000000000002</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="3">
         <v>-1.1805000000000001</v>
       </c>
       <c r="O12" s="3">
         <v>-0.22239999999999999</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
       <c r="S12" s="3">
         <v>-0.20169999999999999</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
